--- a/Slides/data/Courses40Cycle.xlsx
+++ b/Slides/data/Courses40Cycle.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unipdit-my.sharepoint.com/personal/enrico_toffalini_unipd_it/Documents/Documents/Dottorato lezioni didattica/R for Data Science/_GITHUB Basics R DataScience/Slides/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python for Data Science\GITHUB\Slides\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="11_F25DC773A252ABDACC1048BBC9D975725ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAD31A1C-4EF0-489C-91CB-B2E0578B68B5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CE23F5-A14B-40AB-8252-D4A2BE04F8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -378,10 +378,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
